--- a/IFTTT_Maker_Webhooks_Events (55).xlsx
+++ b/IFTTT_Maker_Webhooks_Events (55).xlsx
@@ -13,115 +13,115 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6000" uniqueCount="37">
   <si>
-    <t>May 6, 2021 at 02:13PM</t>
+    <t>May 14, 2021 at 05:49PM</t>
   </si>
   <si>
-    <t>esp03</t>
+    <t>esp02</t>
   </si>
   <si>
-    <t>PH: 4</t>
+    <t>Temperatura Sumergible: 27</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:14PM</t>
+    <t>Temperatura Sumergible: 26</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:15PM</t>
+    <t>May 14, 2021 at 05:50PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:16PM</t>
+    <t>May 14, 2021 at 05:51PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:17PM</t>
+    <t>May 14, 2021 at 05:52PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:18PM</t>
+    <t>May 14, 2021 at 05:53PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:19PM</t>
+    <t>May 14, 2021 at 05:54PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:20PM</t>
+    <t>May 14, 2021 at 05:55PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:21PM</t>
+    <t>May 14, 2021 at 05:56PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:22PM</t>
+    <t>May 14, 2021 at 05:57PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:23PM</t>
+    <t>May 14, 2021 at 05:58PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:24PM</t>
+    <t>May 14, 2021 at 05:59PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:25PM</t>
+    <t>May 14, 2021 at 06:00PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:26PM</t>
+    <t>May 14, 2021 at 06:01PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:27PM</t>
+    <t>May 14, 2021 at 06:02PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:28PM</t>
+    <t>May 14, 2021 at 06:03PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:29PM</t>
+    <t>May 14, 2021 at 06:18PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:30PM</t>
+    <t>May 14, 2021 at 06:19PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:31PM</t>
+    <t>May 14, 2021 at 06:20PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:32PM</t>
+    <t>May 14, 2021 at 06:21PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:33PM</t>
+    <t>May 14, 2021 at 06:22PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:34PM</t>
+    <t>May 14, 2021 at 06:23PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:35PM</t>
+    <t>May 14, 2021 at 06:24PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:36PM</t>
+    <t>May 14, 2021 at 06:25PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:37PM</t>
+    <t>May 14, 2021 at 06:40PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:38PM</t>
+    <t>May 14, 2021 at 06:41PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:39PM</t>
+    <t>May 14, 2021 at 06:42PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:40PM</t>
+    <t>May 14, 2021 at 06:43PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:41PM</t>
+    <t>May 14, 2021 at 06:44PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:42PM</t>
+    <t>May 14, 2021 at 06:45PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:43PM</t>
+    <t>May 14, 2021 at 06:46PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:44PM</t>
+    <t>May 14, 2021 at 06:47PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:45PM</t>
+    <t>May 14, 2021 at 06:48PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:46PM</t>
+    <t>May 14, 2021 at 06:49PM</t>
   </si>
   <si>
-    <t>May 6, 2021 at 02:47PM</t>
+    <t>May 14, 2021 at 06:50PM</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -553,12 +553,12 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
@@ -624,18 +624,18 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>1</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>1</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
@@ -668,18 +668,18 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
@@ -690,18 +690,18 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>1</v>
@@ -833,29 +833,29 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>1</v>
@@ -866,18 +866,18 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>1</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>1</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>1</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>1</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>1</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>1</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>1</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>1</v>
@@ -976,18 +976,18 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>1</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>1</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>1</v>
@@ -1020,18 +1020,18 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>1</v>
@@ -1042,18 +1042,18 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>1</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>1</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>1</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>1</v>
@@ -1097,18 +1097,18 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -1548,7 +1548,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>1</v>
@@ -1559,18 +1559,18 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>1</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>1</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>1</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>1</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>1</v>
@@ -1625,18 +1625,18 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>1</v>
@@ -1658,18 +1658,18 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>1</v>
@@ -1680,13 +1680,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
@@ -1730,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -1818,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
@@ -1884,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -1939,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
@@ -2093,23 +2093,23 @@
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>1</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>1</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>1</v>
@@ -2142,29 +2142,29 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>1</v>
@@ -2175,18 +2175,18 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>1</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>1</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>1</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>1</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>1</v>
@@ -2241,18 +2241,18 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>1</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>1</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>1</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>1</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>1</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>1</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>1</v>
@@ -2329,18 +2329,18 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>1</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>1</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>1</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>1</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>1</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>1</v>
@@ -2406,18 +2406,18 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>1</v>
@@ -2428,40 +2428,40 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>1</v>
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -2654,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -2665,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209">
@@ -2687,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -2698,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -2775,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -2874,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -2912,7 +2912,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>1</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>1</v>
@@ -2934,29 +2934,29 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>1</v>
@@ -2967,18 +2967,18 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>1</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>1</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>1</v>
@@ -3011,18 +3011,18 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>1</v>
@@ -3044,18 +3044,18 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>1</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>1</v>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>1</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>1</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>1</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>1</v>
@@ -3121,29 +3121,29 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>1</v>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>1</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>1</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>1</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>1</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>1</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>1</v>
@@ -3237,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -3259,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263">
@@ -3292,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268">
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279">
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281">
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284">
@@ -3501,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285">
@@ -3578,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -3644,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305">
@@ -3732,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306">
@@ -3748,18 +3748,18 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>1</v>
@@ -3770,18 +3770,18 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>1</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>1</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>1</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>1</v>
@@ -3825,7 +3825,7 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>1</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>1</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>1</v>
@@ -3897,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -3974,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -4007,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331">
@@ -4062,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -4073,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337">
@@ -4084,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -4298,7 +4298,7 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>1</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>1</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>1</v>
@@ -4331,18 +4331,18 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>1</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>1</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>1</v>
@@ -4375,29 +4375,29 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>1</v>
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373">
@@ -4491,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388">
@@ -4656,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390">
@@ -4755,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -4788,7 +4788,7 @@
         <v>1</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -4876,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410">
@@ -4953,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417">
@@ -5013,7 +5013,7 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>1</v>
@@ -5030,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424">
@@ -5063,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="427">
@@ -5107,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -5228,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -5272,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -5283,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447">
@@ -5327,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451">
@@ -5338,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="452">
@@ -5448,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="462">
@@ -5481,7 +5481,7 @@
         <v>1</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -5503,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467">
@@ -5536,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -5635,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -5767,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -5789,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -5800,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="494">
@@ -5827,7 +5827,7 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>1</v>
@@ -5838,29 +5838,29 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>1</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>1</v>
@@ -5882,18 +5882,18 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>1</v>
@@ -5904,18 +5904,18 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>1</v>
@@ -5926,13 +5926,13 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506">
@@ -5998,7 +5998,7 @@
         <v>1</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -6053,7 +6053,7 @@
         <v>1</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -6097,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521">
@@ -6141,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="525">
@@ -6152,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -6185,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529">
@@ -6240,7 +6240,7 @@
         <v>1</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534">
@@ -6317,7 +6317,7 @@
         <v>1</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -6361,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -6482,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556">
@@ -6498,7 +6498,7 @@
     </row>
     <row r="557">
       <c r="A557" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>1</v>
@@ -6509,18 +6509,18 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>1</v>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="560">
       <c r="A560" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>1</v>
@@ -6542,7 +6542,7 @@
     </row>
     <row r="561">
       <c r="A561" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>1</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="562">
       <c r="A562" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>1</v>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="563">
       <c r="A563" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>1</v>
@@ -6575,18 +6575,18 @@
     </row>
     <row r="564">
       <c r="A564" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>1</v>
@@ -6597,7 +6597,7 @@
     </row>
     <row r="566">
       <c r="A566" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>1</v>
@@ -6647,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="571">
@@ -6658,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="572">
@@ -6702,7 +6702,7 @@
         <v>1</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -6768,7 +6768,7 @@
         <v>1</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582">
@@ -6779,7 +6779,7 @@
         <v>1</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="583">
@@ -6790,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="584">
@@ -6823,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="587">
@@ -6845,7 +6845,7 @@
         <v>1</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="589">
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590">
@@ -6900,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="594">
@@ -6911,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="595">
@@ -6977,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="601">
@@ -6988,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="602">
@@ -7021,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="605">
@@ -7054,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="608">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="611">
@@ -7114,7 +7114,7 @@
     </row>
     <row r="613">
       <c r="A613" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>1</v>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="614">
       <c r="A614" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>1</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="615">
       <c r="A615" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B615" s="1" t="s">
         <v>1</v>
@@ -7147,7 +7147,7 @@
     </row>
     <row r="616">
       <c r="A616" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B616" s="1" t="s">
         <v>1</v>
@@ -7164,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -7186,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -7274,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="628">
@@ -7307,7 +7307,7 @@
         <v>1</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -7329,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="633">
@@ -7351,7 +7351,7 @@
         <v>1</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="635">
@@ -7362,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -7494,7 +7494,7 @@
         <v>1</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="648">
@@ -7505,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="649">
@@ -7516,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="650">
@@ -7527,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="651">
@@ -7560,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="654">
@@ -7582,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="656">
@@ -7670,7 +7670,7 @@
         <v>1</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="664">
@@ -7703,12 +7703,12 @@
         <v>1</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B667" s="1" t="s">
         <v>1</v>
@@ -7719,7 +7719,7 @@
     </row>
     <row r="668">
       <c r="A668" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B668" s="1" t="s">
         <v>1</v>
@@ -7730,7 +7730,7 @@
     </row>
     <row r="669">
       <c r="A669" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B669" s="1" t="s">
         <v>1</v>
@@ -7741,18 +7741,18 @@
     </row>
     <row r="670">
       <c r="A670" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B670" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>1</v>
@@ -7763,7 +7763,7 @@
     </row>
     <row r="672">
       <c r="A672" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B672" s="1" t="s">
         <v>1</v>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="673">
       <c r="A673" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B673" s="1" t="s">
         <v>1</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="674">
       <c r="A674" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B674" s="1" t="s">
         <v>1</v>
@@ -7796,7 +7796,7 @@
     </row>
     <row r="675">
       <c r="A675" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B675" s="1" t="s">
         <v>1</v>
@@ -7807,7 +7807,7 @@
     </row>
     <row r="676">
       <c r="A676" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B676" s="1" t="s">
         <v>1</v>
@@ -7818,18 +7818,18 @@
     </row>
     <row r="677">
       <c r="A677" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B677" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B678" s="1" t="s">
         <v>1</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="679">
       <c r="A679" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B679" s="1" t="s">
         <v>1</v>
@@ -7851,7 +7851,7 @@
     </row>
     <row r="680">
       <c r="A680" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B680" s="1" t="s">
         <v>1</v>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="681">
       <c r="A681" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B681" s="1" t="s">
         <v>1</v>
@@ -7873,7 +7873,7 @@
     </row>
     <row r="682">
       <c r="A682" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B682" s="1" t="s">
         <v>1</v>
@@ -7884,7 +7884,7 @@
     </row>
     <row r="683">
       <c r="A683" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B683" s="1" t="s">
         <v>1</v>
@@ -7895,7 +7895,7 @@
     </row>
     <row r="684">
       <c r="A684" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B684" s="1" t="s">
         <v>1</v>
@@ -7906,7 +7906,7 @@
     </row>
     <row r="685">
       <c r="A685" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B685" s="1" t="s">
         <v>1</v>
@@ -7923,7 +7923,7 @@
         <v>1</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="687">
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="697">
@@ -8088,7 +8088,7 @@
         <v>1</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="702">
@@ -8154,7 +8154,7 @@
         <v>1</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -8220,7 +8220,7 @@
         <v>1</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -8264,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="718">
@@ -8286,7 +8286,7 @@
         <v>1</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="720">
@@ -8319,7 +8319,7 @@
         <v>1</v>
       </c>
       <c r="C722" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="723">
@@ -8352,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="726">
@@ -8368,7 +8368,7 @@
     </row>
     <row r="727">
       <c r="A727" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B727" s="1" t="s">
         <v>1</v>
@@ -8379,18 +8379,18 @@
     </row>
     <row r="728">
       <c r="A728" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B728" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B729" s="1" t="s">
         <v>1</v>
@@ -8401,7 +8401,7 @@
     </row>
     <row r="730">
       <c r="A730" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B730" s="1" t="s">
         <v>1</v>
@@ -8412,7 +8412,7 @@
     </row>
     <row r="731">
       <c r="A731" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>1</v>
@@ -8423,7 +8423,7 @@
     </row>
     <row r="732">
       <c r="A732" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B732" s="1" t="s">
         <v>1</v>
@@ -8434,18 +8434,18 @@
     </row>
     <row r="733">
       <c r="A733" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B734" s="1" t="s">
         <v>1</v>
@@ -8456,29 +8456,29 @@
     </row>
     <row r="735">
       <c r="A735" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B735" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C735" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B736" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C736" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B737" s="1" t="s">
         <v>1</v>
@@ -8489,7 +8489,7 @@
     </row>
     <row r="738">
       <c r="A738" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B738" s="1" t="s">
         <v>1</v>
@@ -8500,7 +8500,7 @@
     </row>
     <row r="739">
       <c r="A739" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>1</v>
@@ -8511,7 +8511,7 @@
     </row>
     <row r="740">
       <c r="A740" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B740" s="1" t="s">
         <v>1</v>
@@ -8522,18 +8522,18 @@
     </row>
     <row r="741">
       <c r="A741" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C741" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>1</v>
@@ -8544,7 +8544,7 @@
     </row>
     <row r="743">
       <c r="A743" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B743" s="1" t="s">
         <v>1</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="744">
       <c r="A744" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B744" s="1" t="s">
         <v>1</v>
@@ -8566,7 +8566,7 @@
     </row>
     <row r="745">
       <c r="A745" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B745" s="1" t="s">
         <v>1</v>
@@ -8577,7 +8577,7 @@
     </row>
     <row r="746">
       <c r="A746" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B746" s="1" t="s">
         <v>1</v>
@@ -8588,29 +8588,29 @@
     </row>
     <row r="747">
       <c r="A747" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B747" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C747" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B748" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B749" s="1" t="s">
         <v>1</v>
@@ -8621,18 +8621,18 @@
     </row>
     <row r="750">
       <c r="A750" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B750" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C750" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>1</v>
@@ -8643,18 +8643,18 @@
     </row>
     <row r="752">
       <c r="A752" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B752" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C752" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B753" s="1" t="s">
         <v>1</v>
@@ -8665,7 +8665,7 @@
     </row>
     <row r="754">
       <c r="A754" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B754" s="1" t="s">
         <v>1</v>
@@ -8676,7 +8676,7 @@
     </row>
     <row r="755">
       <c r="A755" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B755" s="1" t="s">
         <v>1</v>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="756">
       <c r="A756" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B756" s="1" t="s">
         <v>1</v>
@@ -8792,7 +8792,7 @@
         <v>1</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="766">
@@ -8814,7 +8814,7 @@
         <v>1</v>
       </c>
       <c r="C767" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="768">
@@ -8836,7 +8836,7 @@
         <v>1</v>
       </c>
       <c r="C769" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="770">
@@ -8858,7 +8858,7 @@
         <v>1</v>
       </c>
       <c r="C771" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="772">
@@ -8869,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="C772" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="773">
@@ -8891,7 +8891,7 @@
         <v>1</v>
       </c>
       <c r="C774" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="775">
@@ -8902,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="C775" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="776">
@@ -8935,7 +8935,7 @@
         <v>1</v>
       </c>
       <c r="C778" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="779">
@@ -9012,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="C785" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="786">
@@ -9056,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="C789" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="790">
@@ -9078,7 +9078,7 @@
         <v>1</v>
       </c>
       <c r="C791" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="792">
@@ -9100,7 +9100,7 @@
         <v>1</v>
       </c>
       <c r="C793" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="794">
@@ -9182,18 +9182,18 @@
     </row>
     <row r="801">
       <c r="A801" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B801" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C801" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B802" s="1" t="s">
         <v>1</v>
@@ -9204,7 +9204,7 @@
     </row>
     <row r="803">
       <c r="A803" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B803" s="1" t="s">
         <v>1</v>
@@ -9215,7 +9215,7 @@
     </row>
     <row r="804">
       <c r="A804" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B804" s="1" t="s">
         <v>1</v>
@@ -9226,7 +9226,7 @@
     </row>
     <row r="805">
       <c r="A805" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B805" s="1" t="s">
         <v>1</v>
@@ -9237,7 +9237,7 @@
     </row>
     <row r="806">
       <c r="A806" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B806" s="1" t="s">
         <v>1</v>
@@ -9265,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="809">
@@ -9375,7 +9375,7 @@
         <v>1</v>
       </c>
       <c r="C818" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="819">
@@ -9518,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="C831" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="832">
@@ -9573,7 +9573,7 @@
         <v>1</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="837">
@@ -9595,7 +9595,7 @@
         <v>1</v>
       </c>
       <c r="C838" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="839">
@@ -9672,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="C845" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="846">
@@ -9694,7 +9694,7 @@
         <v>1</v>
       </c>
       <c r="C847" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="849">
@@ -9760,7 +9760,7 @@
         <v>1</v>
       </c>
       <c r="C853" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="854">
@@ -9771,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="C854" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="855">
@@ -9782,7 +9782,7 @@
         <v>1</v>
       </c>
       <c r="C855" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="856">
@@ -9892,7 +9892,7 @@
         <v>1</v>
       </c>
       <c r="C865" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="866">
@@ -9908,7 +9908,7 @@
     </row>
     <row r="867">
       <c r="A867" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B867" s="1" t="s">
         <v>1</v>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="868">
       <c r="A868" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B868" s="1" t="s">
         <v>1</v>
@@ -9930,7 +9930,7 @@
     </row>
     <row r="869">
       <c r="A869" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B869" s="1" t="s">
         <v>1</v>
@@ -9941,7 +9941,7 @@
     </row>
     <row r="870">
       <c r="A870" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B870" s="1" t="s">
         <v>1</v>
@@ -9952,7 +9952,7 @@
     </row>
     <row r="871">
       <c r="A871" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>1</v>
@@ -9963,18 +9963,18 @@
     </row>
     <row r="872">
       <c r="A872" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B872" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C872" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B873" s="1" t="s">
         <v>1</v>
@@ -9985,13 +9985,13 @@
     </row>
     <row r="874">
       <c r="A874" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B874" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C874" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="875">
@@ -10123,7 +10123,7 @@
         <v>1</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="887">
@@ -10211,7 +10211,7 @@
         <v>1</v>
       </c>
       <c r="C894" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="895">
@@ -10222,7 +10222,7 @@
         <v>1</v>
       </c>
       <c r="C895" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="896">
@@ -10288,7 +10288,7 @@
         <v>1</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="902">
@@ -10299,7 +10299,7 @@
         <v>1</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="903">
@@ -10332,7 +10332,7 @@
         <v>1</v>
       </c>
       <c r="C905" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="906">
@@ -10359,7 +10359,7 @@
     </row>
     <row r="908">
       <c r="A908" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B908" s="1" t="s">
         <v>1</v>
@@ -10370,18 +10370,18 @@
     </row>
     <row r="909">
       <c r="A909" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B909" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B910" s="1" t="s">
         <v>1</v>
@@ -10392,18 +10392,18 @@
     </row>
     <row r="911">
       <c r="A911" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B911" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C911" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B912" s="1" t="s">
         <v>1</v>
@@ -10414,7 +10414,7 @@
     </row>
     <row r="913">
       <c r="A913" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B913" s="1" t="s">
         <v>1</v>
@@ -10425,7 +10425,7 @@
     </row>
     <row r="914">
       <c r="A914" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B914" s="1" t="s">
         <v>1</v>
@@ -10436,7 +10436,7 @@
     </row>
     <row r="915">
       <c r="A915" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B915" s="1" t="s">
         <v>1</v>
@@ -10447,7 +10447,7 @@
     </row>
     <row r="916">
       <c r="A916" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B916" s="1" t="s">
         <v>1</v>
@@ -10464,7 +10464,7 @@
         <v>1</v>
       </c>
       <c r="C917" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="918">
@@ -10508,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="922">
@@ -10530,7 +10530,7 @@
         <v>1</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="924">
@@ -10662,7 +10662,7 @@
         <v>1</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -10695,7 +10695,7 @@
         <v>1</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -10706,7 +10706,7 @@
         <v>1</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -10750,7 +10750,7 @@
         <v>1</v>
       </c>
       <c r="C943" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -10772,7 +10772,7 @@
         <v>1</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -10783,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="947">
@@ -10865,7 +10865,7 @@
     </row>
     <row r="954">
       <c r="A954" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B954" s="1" t="s">
         <v>1</v>
@@ -10876,7 +10876,7 @@
     </row>
     <row r="955">
       <c r="A955" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B955" s="1" t="s">
         <v>1</v>
@@ -10887,7 +10887,7 @@
     </row>
     <row r="956">
       <c r="A956" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B956" s="1" t="s">
         <v>1</v>
@@ -10898,7 +10898,7 @@
     </row>
     <row r="957">
       <c r="A957" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B957" s="1" t="s">
         <v>1</v>
@@ -10909,7 +10909,7 @@
     </row>
     <row r="958">
       <c r="A958" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B958" s="1" t="s">
         <v>1</v>
@@ -10920,7 +10920,7 @@
     </row>
     <row r="959">
       <c r="A959" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B959" s="1" t="s">
         <v>1</v>
@@ -10931,7 +10931,7 @@
     </row>
     <row r="960">
       <c r="A960" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B960" s="1" t="s">
         <v>1</v>
@@ -10942,7 +10942,7 @@
     </row>
     <row r="961">
       <c r="A961" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B961" s="1" t="s">
         <v>1</v>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="962">
       <c r="A962" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B962" s="1" t="s">
         <v>1</v>
@@ -10964,7 +10964,7 @@
     </row>
     <row r="963">
       <c r="A963" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B963" s="1" t="s">
         <v>1</v>
@@ -10975,7 +10975,7 @@
     </row>
     <row r="964">
       <c r="A964" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B964" s="1" t="s">
         <v>1</v>
@@ -10986,40 +10986,40 @@
     </row>
     <row r="965">
       <c r="A965" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B965" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C965" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B966" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C966" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B967" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C967" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B968" s="1" t="s">
         <v>1</v>
@@ -11030,7 +11030,7 @@
     </row>
     <row r="969">
       <c r="A969" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B969" s="1" t="s">
         <v>1</v>
@@ -11041,7 +11041,7 @@
     </row>
     <row r="970">
       <c r="A970" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B970" s="1" t="s">
         <v>1</v>
@@ -11080,7 +11080,7 @@
         <v>1</v>
       </c>
       <c r="C973" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="974">
@@ -11124,7 +11124,7 @@
         <v>1</v>
       </c>
       <c r="C977" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="978">
@@ -11157,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="C980" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="981">
@@ -11190,7 +11190,7 @@
         <v>1</v>
       </c>
       <c r="C983" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="984">
@@ -11212,7 +11212,7 @@
         <v>1</v>
       </c>
       <c r="C985" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="986">
@@ -11223,7 +11223,7 @@
         <v>1</v>
       </c>
       <c r="C986" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="987">
@@ -11234,7 +11234,7 @@
         <v>1</v>
       </c>
       <c r="C987" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="988">
@@ -11245,7 +11245,7 @@
         <v>1</v>
       </c>
       <c r="C988" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="989">
@@ -11322,7 +11322,7 @@
         <v>1</v>
       </c>
       <c r="C995" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="996">
@@ -11333,7 +11333,7 @@
         <v>1</v>
       </c>
       <c r="C996" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -11366,7 +11366,7 @@
         <v>1</v>
       </c>
       <c r="C999" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -11454,12 +11454,12 @@
         <v>1</v>
       </c>
       <c r="C1007" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1008" s="1" t="s">
         <v>1</v>
@@ -11470,7 +11470,7 @@
     </row>
     <row r="1009">
       <c r="A1009" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1009" s="1" t="s">
         <v>1</v>
@@ -11481,7 +11481,7 @@
     </row>
     <row r="1010">
       <c r="A1010" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1010" s="1" t="s">
         <v>1</v>
@@ -11492,7 +11492,7 @@
     </row>
     <row r="1011">
       <c r="A1011" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1011" s="1" t="s">
         <v>1</v>
@@ -11503,7 +11503,7 @@
     </row>
     <row r="1012">
       <c r="A1012" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1012" s="1" t="s">
         <v>1</v>
@@ -11514,18 +11514,18 @@
     </row>
     <row r="1013">
       <c r="A1013" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1013" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1013" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1014" s="1" t="s">
         <v>1</v>
@@ -11536,7 +11536,7 @@
     </row>
     <row r="1015">
       <c r="A1015" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1015" s="1" t="s">
         <v>1</v>
@@ -11547,18 +11547,18 @@
     </row>
     <row r="1016">
       <c r="A1016" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1016" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1016" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1017" s="1" t="s">
         <v>1</v>
@@ -11569,7 +11569,7 @@
     </row>
     <row r="1018">
       <c r="A1018" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1018" s="1" t="s">
         <v>1</v>
@@ -11580,29 +11580,29 @@
     </row>
     <row r="1019">
       <c r="A1019" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1019" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1019" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1020" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1020" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1021" s="1" t="s">
         <v>1</v>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="1022">
       <c r="A1022" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1022" s="1" t="s">
         <v>1</v>
@@ -11624,7 +11624,7 @@
     </row>
     <row r="1023">
       <c r="A1023" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1023" s="1" t="s">
         <v>1</v>
@@ -11635,29 +11635,29 @@
     </row>
     <row r="1024">
       <c r="A1024" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1024" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1024" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1025" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1025" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1026" s="1" t="s">
         <v>1</v>
@@ -11668,7 +11668,7 @@
     </row>
     <row r="1027">
       <c r="A1027" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1027" s="1" t="s">
         <v>1</v>
@@ -11679,7 +11679,7 @@
     </row>
     <row r="1028">
       <c r="A1028" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1028" s="1" t="s">
         <v>1</v>
@@ -11690,7 +11690,7 @@
     </row>
     <row r="1029">
       <c r="A1029" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1029" s="1" t="s">
         <v>1</v>
@@ -11701,7 +11701,7 @@
     </row>
     <row r="1030">
       <c r="A1030" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1030" s="1" t="s">
         <v>1</v>
@@ -11712,7 +11712,7 @@
     </row>
     <row r="1031">
       <c r="A1031" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1031" s="1" t="s">
         <v>1</v>
@@ -11723,7 +11723,7 @@
     </row>
     <row r="1032">
       <c r="A1032" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1032" s="1" t="s">
         <v>1</v>
@@ -11734,18 +11734,18 @@
     </row>
     <row r="1033">
       <c r="A1033" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1033" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1033" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1034" s="1" t="s">
         <v>1</v>
@@ -11756,7 +11756,7 @@
     </row>
     <row r="1035">
       <c r="A1035" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1035" s="1" t="s">
         <v>1</v>
@@ -11767,18 +11767,18 @@
     </row>
     <row r="1036">
       <c r="A1036" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1036" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1036" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1037" s="1" t="s">
         <v>1</v>
@@ -11789,18 +11789,18 @@
     </row>
     <row r="1038">
       <c r="A1038" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1038" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1038" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1039" s="1" t="s">
         <v>1</v>
@@ -11811,7 +11811,7 @@
     </row>
     <row r="1040">
       <c r="A1040" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1040" s="1" t="s">
         <v>1</v>
@@ -11822,29 +11822,29 @@
     </row>
     <row r="1041">
       <c r="A1041" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1041" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1041" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1042" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1042" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1043" s="1" t="s">
         <v>1</v>
@@ -11855,7 +11855,7 @@
     </row>
     <row r="1044">
       <c r="A1044" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1044" s="1" t="s">
         <v>1</v>
@@ -11866,7 +11866,7 @@
     </row>
     <row r="1045">
       <c r="A1045" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1045" s="1" t="s">
         <v>1</v>
@@ -11877,7 +11877,7 @@
     </row>
     <row r="1046">
       <c r="A1046" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1046" s="1" t="s">
         <v>1</v>
@@ -11888,7 +11888,7 @@
     </row>
     <row r="1047">
       <c r="A1047" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1047" s="1" t="s">
         <v>1</v>
@@ -11916,7 +11916,7 @@
         <v>1</v>
       </c>
       <c r="C1049" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -12015,7 +12015,7 @@
         <v>1</v>
       </c>
       <c r="C1058" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -12026,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="C1059" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1060">
@@ -12075,7 +12075,7 @@
     </row>
     <row r="1064">
       <c r="A1064" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1064" s="1" t="s">
         <v>1</v>
@@ -12086,7 +12086,7 @@
     </row>
     <row r="1065">
       <c r="A1065" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1065" s="1" t="s">
         <v>1</v>
@@ -12097,18 +12097,18 @@
     </row>
     <row r="1066">
       <c r="A1066" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1066" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1066" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1067" s="1" t="s">
         <v>1</v>
@@ -12119,7 +12119,7 @@
     </row>
     <row r="1068">
       <c r="A1068" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1068" s="1" t="s">
         <v>1</v>
@@ -12130,18 +12130,18 @@
     </row>
     <row r="1069">
       <c r="A1069" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1069" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1069" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1070" s="1" t="s">
         <v>1</v>
@@ -12152,7 +12152,7 @@
     </row>
     <row r="1071">
       <c r="A1071" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1071" s="1" t="s">
         <v>1</v>
@@ -12163,18 +12163,18 @@
     </row>
     <row r="1072">
       <c r="A1072" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1072" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1072" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1073" s="1" t="s">
         <v>1</v>
@@ -12185,18 +12185,18 @@
     </row>
     <row r="1074">
       <c r="A1074" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1074" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1074" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1075" s="1" t="s">
         <v>1</v>
@@ -12207,7 +12207,7 @@
     </row>
     <row r="1076">
       <c r="A1076" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1076" s="1" t="s">
         <v>1</v>
@@ -12218,18 +12218,18 @@
     </row>
     <row r="1077">
       <c r="A1077" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1077" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1077" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1078" s="1" t="s">
         <v>1</v>
@@ -12240,7 +12240,7 @@
     </row>
     <row r="1079">
       <c r="A1079" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1079" s="1" t="s">
         <v>1</v>
@@ -12251,7 +12251,7 @@
     </row>
     <row r="1080">
       <c r="A1080" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1080" s="1" t="s">
         <v>1</v>
@@ -12262,18 +12262,18 @@
     </row>
     <row r="1081">
       <c r="A1081" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1081" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1081" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1082" s="1" t="s">
         <v>1</v>
@@ -12284,7 +12284,7 @@
     </row>
     <row r="1083">
       <c r="A1083" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1083" s="1" t="s">
         <v>1</v>
@@ -12295,29 +12295,29 @@
     </row>
     <row r="1084">
       <c r="A1084" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1084" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1084" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1085" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1085" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1086" s="1" t="s">
         <v>1</v>
@@ -12328,7 +12328,7 @@
     </row>
     <row r="1087">
       <c r="A1087" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1087" s="1" t="s">
         <v>1</v>
@@ -12339,7 +12339,7 @@
     </row>
     <row r="1088">
       <c r="A1088" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1088" s="1" t="s">
         <v>1</v>
@@ -12350,7 +12350,7 @@
     </row>
     <row r="1089">
       <c r="A1089" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1089" s="1" t="s">
         <v>1</v>
@@ -12361,7 +12361,7 @@
     </row>
     <row r="1090">
       <c r="A1090" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1090" s="1" t="s">
         <v>1</v>
@@ -12372,7 +12372,7 @@
     </row>
     <row r="1091">
       <c r="A1091" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1091" s="1" t="s">
         <v>1</v>
@@ -12383,7 +12383,7 @@
     </row>
     <row r="1092">
       <c r="A1092" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1092" s="1" t="s">
         <v>1</v>
@@ -12394,18 +12394,18 @@
     </row>
     <row r="1093">
       <c r="A1093" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1093" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1093" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1094" s="1" t="s">
         <v>1</v>
@@ -12416,7 +12416,7 @@
     </row>
     <row r="1095">
       <c r="A1095" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1095" s="1" t="s">
         <v>1</v>
@@ -12427,7 +12427,7 @@
     </row>
     <row r="1096">
       <c r="A1096" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1096" s="1" t="s">
         <v>1</v>
@@ -12438,51 +12438,51 @@
     </row>
     <row r="1097">
       <c r="A1097" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1097" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1097" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1098" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1098" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1099" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1099" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1100" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1100" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1101" s="1" t="s">
         <v>1</v>
@@ -12493,7 +12493,7 @@
     </row>
     <row r="1102">
       <c r="A1102" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1102" s="1" t="s">
         <v>1</v>
@@ -12504,7 +12504,7 @@
     </row>
     <row r="1103">
       <c r="A1103" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1103" s="1" t="s">
         <v>1</v>
@@ -12515,18 +12515,18 @@
     </row>
     <row r="1104">
       <c r="A1104" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1104" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1104" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1105" s="1" t="s">
         <v>1</v>
@@ -12537,18 +12537,18 @@
     </row>
     <row r="1106">
       <c r="A1106" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1106" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1106" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1107" s="1" t="s">
         <v>1</v>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="1108">
       <c r="A1108" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1108" s="1" t="s">
         <v>1</v>
@@ -12642,7 +12642,7 @@
         <v>1</v>
       </c>
       <c r="C1115" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1116">
@@ -12653,7 +12653,7 @@
         <v>1</v>
       </c>
       <c r="C1116" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -12675,7 +12675,7 @@
         <v>1</v>
       </c>
       <c r="C1118" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -12686,7 +12686,7 @@
         <v>1</v>
       </c>
       <c r="C1119" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1120">
@@ -12730,7 +12730,7 @@
         <v>1</v>
       </c>
       <c r="C1123" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1124">
@@ -12741,7 +12741,7 @@
         <v>1</v>
       </c>
       <c r="C1124" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1125">
@@ -12763,7 +12763,7 @@
         <v>1</v>
       </c>
       <c r="C1126" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1127">
@@ -12785,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="C1128" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1129">
@@ -12840,7 +12840,7 @@
         <v>1</v>
       </c>
       <c r="C1133" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1134">
@@ -12944,7 +12944,7 @@
     </row>
     <row r="1143">
       <c r="A1143" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1143" s="1" t="s">
         <v>1</v>
@@ -12955,7 +12955,7 @@
     </row>
     <row r="1144">
       <c r="A1144" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1144" s="1" t="s">
         <v>1</v>
@@ -12966,7 +12966,7 @@
     </row>
     <row r="1145">
       <c r="A1145" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1145" s="1" t="s">
         <v>1</v>
@@ -12977,7 +12977,7 @@
     </row>
     <row r="1146">
       <c r="A1146" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1146" s="1" t="s">
         <v>1</v>
@@ -12988,7 +12988,7 @@
     </row>
     <row r="1147">
       <c r="A1147" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1147" s="1" t="s">
         <v>1</v>
@@ -12999,18 +12999,18 @@
     </row>
     <row r="1148">
       <c r="A1148" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1148" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1148" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1149" s="1" t="s">
         <v>1</v>
@@ -13021,18 +13021,18 @@
     </row>
     <row r="1150">
       <c r="A1150" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1150" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1150" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1151" s="1" t="s">
         <v>1</v>
@@ -13043,7 +13043,7 @@
     </row>
     <row r="1152">
       <c r="A1152" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1152" s="1" t="s">
         <v>1</v>
@@ -13054,7 +13054,7 @@
     </row>
     <row r="1153">
       <c r="A1153" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1153" s="1" t="s">
         <v>1</v>
@@ -13065,7 +13065,7 @@
     </row>
     <row r="1154">
       <c r="A1154" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1154" s="1" t="s">
         <v>1</v>
@@ -13076,7 +13076,7 @@
     </row>
     <row r="1155">
       <c r="A1155" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1155" s="1" t="s">
         <v>1</v>
@@ -13087,18 +13087,18 @@
     </row>
     <row r="1156">
       <c r="A1156" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1156" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1156" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1157" s="1" t="s">
         <v>1</v>
@@ -13109,29 +13109,29 @@
     </row>
     <row r="1158">
       <c r="A1158" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1158" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1158" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1159" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1159" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1160" s="1" t="s">
         <v>1</v>
@@ -13142,7 +13142,7 @@
     </row>
     <row r="1161">
       <c r="A1161" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1161" s="1" t="s">
         <v>1</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="1162">
       <c r="A1162" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1162" s="1" t="s">
         <v>1</v>
@@ -13164,18 +13164,18 @@
     </row>
     <row r="1163">
       <c r="A1163" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1163" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1163" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1164" s="1" t="s">
         <v>1</v>
@@ -13186,7 +13186,7 @@
     </row>
     <row r="1165">
       <c r="A1165" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1165" s="1" t="s">
         <v>1</v>
@@ -13197,7 +13197,7 @@
     </row>
     <row r="1166">
       <c r="A1166" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1166" s="1" t="s">
         <v>1</v>
@@ -13236,7 +13236,7 @@
         <v>1</v>
       </c>
       <c r="C1169" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1170">
@@ -13247,7 +13247,7 @@
         <v>1</v>
       </c>
       <c r="C1170" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1171">
@@ -13258,7 +13258,7 @@
         <v>1</v>
       </c>
       <c r="C1171" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1172">
@@ -13291,7 +13291,7 @@
         <v>1</v>
       </c>
       <c r="C1174" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1175">
@@ -13313,7 +13313,7 @@
         <v>1</v>
       </c>
       <c r="C1176" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1177">
@@ -13445,7 +13445,7 @@
         <v>1</v>
       </c>
       <c r="C1188" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1189">
@@ -13500,7 +13500,7 @@
         <v>1</v>
       </c>
       <c r="C1193" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1194">
@@ -13522,7 +13522,7 @@
         <v>1</v>
       </c>
       <c r="C1195" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1196">
@@ -13533,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="C1196" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1197">
@@ -13544,7 +13544,7 @@
         <v>1</v>
       </c>
       <c r="C1197" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1198">
@@ -13659,18 +13659,18 @@
     </row>
     <row r="1208">
       <c r="A1208" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1208" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1208" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1209" s="1" t="s">
         <v>1</v>
@@ -13681,7 +13681,7 @@
     </row>
     <row r="1210">
       <c r="A1210" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1210" s="1" t="s">
         <v>1</v>
@@ -13692,7 +13692,7 @@
     </row>
     <row r="1211">
       <c r="A1211" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1211" s="1" t="s">
         <v>1</v>
@@ -13703,7 +13703,7 @@
     </row>
     <row r="1212">
       <c r="A1212" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1212" s="1" t="s">
         <v>1</v>
@@ -13714,7 +13714,7 @@
     </row>
     <row r="1213">
       <c r="A1213" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1213" s="1" t="s">
         <v>1</v>
@@ -13725,7 +13725,7 @@
     </row>
     <row r="1214">
       <c r="A1214" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1214" s="1" t="s">
         <v>1</v>
@@ -13736,7 +13736,7 @@
     </row>
     <row r="1215">
       <c r="A1215" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1215" s="1" t="s">
         <v>1</v>
@@ -13747,7 +13747,7 @@
     </row>
     <row r="1216">
       <c r="A1216" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1216" s="1" t="s">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         <v>1</v>
       </c>
       <c r="C1220" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1221">
@@ -13808,7 +13808,7 @@
         <v>1</v>
       </c>
       <c r="C1221" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1222">
@@ -13819,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="C1222" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1223">
@@ -13907,7 +13907,7 @@
         <v>1</v>
       </c>
       <c r="C1230" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1231">
@@ -13962,7 +13962,7 @@
         <v>1</v>
       </c>
       <c r="C1235" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1236">
@@ -13973,7 +13973,7 @@
         <v>1</v>
       </c>
       <c r="C1236" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1237">
@@ -14006,7 +14006,7 @@
         <v>1</v>
       </c>
       <c r="C1239" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1240">
@@ -14072,7 +14072,7 @@
         <v>1</v>
       </c>
       <c r="C1245" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1246">
@@ -14083,7 +14083,7 @@
         <v>1</v>
       </c>
       <c r="C1246" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1247">
@@ -14116,7 +14116,7 @@
         <v>1</v>
       </c>
       <c r="C1249" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1250">
@@ -14138,7 +14138,7 @@
         <v>1</v>
       </c>
       <c r="C1251" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1252">
@@ -14149,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="C1252" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1253">
@@ -14171,7 +14171,7 @@
         <v>1</v>
       </c>
       <c r="C1254" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1255">
@@ -14204,7 +14204,7 @@
         <v>1</v>
       </c>
       <c r="C1257" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1258">
@@ -14248,7 +14248,7 @@
         <v>1</v>
       </c>
       <c r="C1261" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1262">
@@ -14259,7 +14259,7 @@
         <v>1</v>
       </c>
       <c r="C1262" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1263">
@@ -14281,7 +14281,7 @@
         <v>1</v>
       </c>
       <c r="C1264" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1265">
@@ -14292,7 +14292,7 @@
         <v>1</v>
       </c>
       <c r="C1265" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1266">
@@ -14308,7 +14308,7 @@
     </row>
     <row r="1267">
       <c r="A1267" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1267" s="1" t="s">
         <v>1</v>
@@ -14319,7 +14319,7 @@
     </row>
     <row r="1268">
       <c r="A1268" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1268" s="1" t="s">
         <v>1</v>
@@ -14330,7 +14330,7 @@
     </row>
     <row r="1269">
       <c r="A1269" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1269" s="1" t="s">
         <v>1</v>
@@ -14341,13 +14341,13 @@
     </row>
     <row r="1270">
       <c r="A1270" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1270" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1270" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -14358,7 +14358,7 @@
         <v>1</v>
       </c>
       <c r="C1271" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -14402,7 +14402,7 @@
         <v>1</v>
       </c>
       <c r="C1275" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -14534,7 +14534,7 @@
         <v>1</v>
       </c>
       <c r="C1287" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -14567,7 +14567,7 @@
         <v>1</v>
       </c>
       <c r="C1290" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1291">
@@ -14611,7 +14611,7 @@
         <v>1</v>
       </c>
       <c r="C1294" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1295">
@@ -14820,7 +14820,7 @@
         <v>1</v>
       </c>
       <c r="C1313" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -14831,7 +14831,7 @@
         <v>1</v>
       </c>
       <c r="C1314" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -14842,7 +14842,7 @@
         <v>1</v>
       </c>
       <c r="C1315" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -14897,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="C1320" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1321">
@@ -14941,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="C1324" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1325">
@@ -14963,7 +14963,7 @@
         <v>1</v>
       </c>
       <c r="C1326" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -15007,23 +15007,23 @@
         <v>1</v>
       </c>
       <c r="C1330" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1331" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1331" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1332" s="1" t="s">
         <v>1</v>
@@ -15034,7 +15034,7 @@
     </row>
     <row r="1333">
       <c r="A1333" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1333" s="1" t="s">
         <v>1</v>
@@ -15045,18 +15045,18 @@
     </row>
     <row r="1334">
       <c r="A1334" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1334" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1334" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1335" s="1" t="s">
         <v>1</v>
@@ -15067,7 +15067,7 @@
     </row>
     <row r="1336">
       <c r="A1336" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1336" s="1" t="s">
         <v>1</v>
@@ -15078,18 +15078,18 @@
     </row>
     <row r="1337">
       <c r="A1337" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1337" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1337" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1338" s="1" t="s">
         <v>1</v>
@@ -15100,7 +15100,7 @@
     </row>
     <row r="1339">
       <c r="A1339" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1339" s="1" t="s">
         <v>1</v>
@@ -15111,7 +15111,7 @@
     </row>
     <row r="1340">
       <c r="A1340" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1340" s="1" t="s">
         <v>1</v>
@@ -15122,7 +15122,7 @@
     </row>
     <row r="1341">
       <c r="A1341" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1341" s="1" t="s">
         <v>1</v>
@@ -15133,29 +15133,29 @@
     </row>
     <row r="1342">
       <c r="A1342" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1342" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1342" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1343" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1343" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1344" s="1" t="s">
         <v>1</v>
@@ -15166,18 +15166,18 @@
     </row>
     <row r="1345">
       <c r="A1345" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1345" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1345" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1346" s="1" t="s">
         <v>1</v>
@@ -15188,7 +15188,7 @@
     </row>
     <row r="1347">
       <c r="A1347" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1347" s="1" t="s">
         <v>1</v>
@@ -15199,7 +15199,7 @@
     </row>
     <row r="1348">
       <c r="A1348" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1348" s="1" t="s">
         <v>1</v>
@@ -15282,7 +15282,7 @@
         <v>1</v>
       </c>
       <c r="C1355" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -15304,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="C1357" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -15315,7 +15315,7 @@
         <v>1</v>
       </c>
       <c r="C1358" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -15337,7 +15337,7 @@
         <v>1</v>
       </c>
       <c r="C1360" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1361">
@@ -15348,7 +15348,7 @@
         <v>1</v>
       </c>
       <c r="C1361" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -15381,7 +15381,7 @@
         <v>1</v>
       </c>
       <c r="C1364" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -15403,7 +15403,7 @@
         <v>1</v>
       </c>
       <c r="C1366" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -15436,7 +15436,7 @@
         <v>1</v>
       </c>
       <c r="C1369" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1370">
@@ -15469,7 +15469,7 @@
         <v>1</v>
       </c>
       <c r="C1372" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -15513,7 +15513,7 @@
         <v>1</v>
       </c>
       <c r="C1376" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -15546,7 +15546,7 @@
         <v>1</v>
       </c>
       <c r="C1379" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -15661,7 +15661,7 @@
     </row>
     <row r="1390">
       <c r="A1390" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1390" s="1" t="s">
         <v>1</v>
@@ -15678,7 +15678,7 @@
         <v>1</v>
       </c>
       <c r="C1391" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1392">
@@ -15733,7 +15733,7 @@
         <v>1</v>
       </c>
       <c r="C1396" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1397">
@@ -15766,7 +15766,7 @@
         <v>1</v>
       </c>
       <c r="C1399" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1400">
@@ -15799,7 +15799,7 @@
         <v>1</v>
       </c>
       <c r="C1402" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -15854,7 +15854,7 @@
         <v>1</v>
       </c>
       <c r="C1407" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -15876,7 +15876,7 @@
         <v>1</v>
       </c>
       <c r="C1409" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -15953,7 +15953,7 @@
         <v>1</v>
       </c>
       <c r="C1416" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1417">
@@ -15975,7 +15975,7 @@
         <v>1</v>
       </c>
       <c r="C1418" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -15986,7 +15986,7 @@
         <v>1</v>
       </c>
       <c r="C1419" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1420">
@@ -16019,7 +16019,7 @@
         <v>1</v>
       </c>
       <c r="C1422" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -16041,7 +16041,7 @@
         <v>1</v>
       </c>
       <c r="C1424" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1425">
@@ -16052,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="C1425" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1426">
@@ -16107,7 +16107,7 @@
         <v>1</v>
       </c>
       <c r="C1430" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -16129,7 +16129,7 @@
         <v>1</v>
       </c>
       <c r="C1432" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -16162,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="C1435" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1436">
@@ -16211,7 +16211,7 @@
     </row>
     <row r="1440">
       <c r="A1440" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1440" s="1" t="s">
         <v>1</v>
@@ -16222,29 +16222,29 @@
     </row>
     <row r="1441">
       <c r="A1441" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1441" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1441" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1442">
       <c r="A1442" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1442" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1442" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1443" s="1" t="s">
         <v>1</v>
@@ -16272,7 +16272,7 @@
         <v>1</v>
       </c>
       <c r="C1445" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -16305,7 +16305,7 @@
         <v>1</v>
       </c>
       <c r="C1448" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -16360,7 +16360,7 @@
         <v>1</v>
       </c>
       <c r="C1453" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1454">
@@ -16470,7 +16470,7 @@
         <v>1</v>
       </c>
       <c r="C1463" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1464">
@@ -16503,7 +16503,7 @@
         <v>1</v>
       </c>
       <c r="C1466" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1467">
@@ -16525,7 +16525,7 @@
         <v>1</v>
       </c>
       <c r="C1468" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1469">
@@ -16558,7 +16558,7 @@
         <v>1</v>
       </c>
       <c r="C1471" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1472">
@@ -16580,7 +16580,7 @@
         <v>1</v>
       </c>
       <c r="C1473" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1474">
@@ -16646,7 +16646,7 @@
         <v>1</v>
       </c>
       <c r="C1479" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1480">
@@ -16701,7 +16701,7 @@
         <v>1</v>
       </c>
       <c r="C1484" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1485">
@@ -16745,7 +16745,7 @@
         <v>1</v>
       </c>
       <c r="C1488" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1489">
@@ -16761,7 +16761,7 @@
     </row>
     <row r="1490">
       <c r="A1490" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1490" s="1" t="s">
         <v>1</v>
@@ -16772,7 +16772,7 @@
     </row>
     <row r="1491">
       <c r="A1491" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1491" s="1" t="s">
         <v>1</v>
@@ -16783,7 +16783,7 @@
     </row>
     <row r="1492">
       <c r="A1492" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1492" s="1" t="s">
         <v>1</v>
@@ -16794,7 +16794,7 @@
     </row>
     <row r="1493">
       <c r="A1493" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1493" s="1" t="s">
         <v>1</v>
@@ -16822,7 +16822,7 @@
         <v>1</v>
       </c>
       <c r="C1495" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1496">
@@ -16844,7 +16844,7 @@
         <v>1</v>
       </c>
       <c r="C1497" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1498">
@@ -16888,7 +16888,7 @@
         <v>1</v>
       </c>
       <c r="C1501" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1502">
@@ -16899,7 +16899,7 @@
         <v>1</v>
       </c>
       <c r="C1502" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1503">
@@ -16932,7 +16932,7 @@
         <v>1</v>
       </c>
       <c r="C1505" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1506">
@@ -16954,7 +16954,7 @@
         <v>1</v>
       </c>
       <c r="C1507" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1508">
@@ -17031,7 +17031,7 @@
         <v>1</v>
       </c>
       <c r="C1514" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1515">
@@ -17108,7 +17108,7 @@
         <v>1</v>
       </c>
       <c r="C1521" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1522">
@@ -17174,7 +17174,7 @@
         <v>1</v>
       </c>
       <c r="C1527" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1528">
@@ -17251,7 +17251,7 @@
         <v>1</v>
       </c>
       <c r="C1534" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1535">
@@ -17295,7 +17295,7 @@
         <v>1</v>
       </c>
       <c r="C1538" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1539">
@@ -17306,7 +17306,7 @@
         <v>1</v>
       </c>
       <c r="C1539" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1540">
@@ -17355,29 +17355,29 @@
     </row>
     <row r="1544">
       <c r="A1544" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1544" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1544" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1545" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1545" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1546" s="1" t="s">
         <v>1</v>
@@ -17388,7 +17388,7 @@
     </row>
     <row r="1547">
       <c r="A1547" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1547" s="1" t="s">
         <v>1</v>
@@ -17399,7 +17399,7 @@
     </row>
     <row r="1548">
       <c r="A1548" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1548" s="1" t="s">
         <v>1</v>
@@ -17410,7 +17410,7 @@
     </row>
     <row r="1549">
       <c r="A1549" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1549" s="1" t="s">
         <v>1</v>
@@ -17421,7 +17421,7 @@
     </row>
     <row r="1550">
       <c r="A1550" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1550" s="1" t="s">
         <v>1</v>
@@ -17432,7 +17432,7 @@
     </row>
     <row r="1551">
       <c r="A1551" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1551" s="1" t="s">
         <v>1</v>
@@ -17443,7 +17443,7 @@
     </row>
     <row r="1552">
       <c r="A1552" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1552" s="1" t="s">
         <v>1</v>
@@ -17454,7 +17454,7 @@
     </row>
     <row r="1553">
       <c r="A1553" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1553" s="1" t="s">
         <v>1</v>
@@ -17465,7 +17465,7 @@
     </row>
     <row r="1554">
       <c r="A1554" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1554" s="1" t="s">
         <v>1</v>
@@ -17476,7 +17476,7 @@
     </row>
     <row r="1555">
       <c r="A1555" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1555" s="1" t="s">
         <v>1</v>
@@ -17487,7 +17487,7 @@
     </row>
     <row r="1556">
       <c r="A1556" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1556" s="1" t="s">
         <v>1</v>
@@ -17498,7 +17498,7 @@
     </row>
     <row r="1557">
       <c r="A1557" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1557" s="1" t="s">
         <v>1</v>
@@ -17509,7 +17509,7 @@
     </row>
     <row r="1558">
       <c r="A1558" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1558" s="1" t="s">
         <v>1</v>
@@ -17520,7 +17520,7 @@
     </row>
     <row r="1559">
       <c r="A1559" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1559" s="1" t="s">
         <v>1</v>
@@ -17531,7 +17531,7 @@
     </row>
     <row r="1560">
       <c r="A1560" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1560" s="1" t="s">
         <v>1</v>
@@ -17542,7 +17542,7 @@
     </row>
     <row r="1561">
       <c r="A1561" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1561" s="1" t="s">
         <v>1</v>
@@ -17553,18 +17553,18 @@
     </row>
     <row r="1562">
       <c r="A1562" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1562" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1562" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1563" s="1" t="s">
         <v>1</v>
@@ -17575,7 +17575,7 @@
     </row>
     <row r="1564">
       <c r="A1564" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1564" s="1" t="s">
         <v>1</v>
@@ -17636,7 +17636,7 @@
         <v>1</v>
       </c>
       <c r="C1569" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1570">
@@ -17713,7 +17713,7 @@
         <v>1</v>
       </c>
       <c r="C1576" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1577">
@@ -17735,7 +17735,7 @@
         <v>1</v>
       </c>
       <c r="C1578" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1579">
@@ -17757,7 +17757,7 @@
         <v>1</v>
       </c>
       <c r="C1580" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1581">
@@ -17801,7 +17801,7 @@
         <v>1</v>
       </c>
       <c r="C1584" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1585">
@@ -17845,7 +17845,7 @@
         <v>1</v>
       </c>
       <c r="C1588" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1589">
@@ -17867,7 +17867,7 @@
         <v>1</v>
       </c>
       <c r="C1590" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1591">
@@ -18021,7 +18021,7 @@
         <v>1</v>
       </c>
       <c r="C1604" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1605">
@@ -18032,7 +18032,7 @@
         <v>1</v>
       </c>
       <c r="C1605" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1606">
@@ -18043,7 +18043,7 @@
         <v>1</v>
       </c>
       <c r="C1606" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1607">
@@ -18065,7 +18065,7 @@
         <v>1</v>
       </c>
       <c r="C1608" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1609">
@@ -18120,7 +18120,7 @@
         <v>1</v>
       </c>
       <c r="C1613" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1614">
@@ -18142,7 +18142,7 @@
         <v>1</v>
       </c>
       <c r="C1615" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1616">
@@ -18175,7 +18175,7 @@
         <v>1</v>
       </c>
       <c r="C1618" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1619">
@@ -18191,7 +18191,7 @@
     </row>
     <row r="1620">
       <c r="A1620" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1620" s="1" t="s">
         <v>1</v>
@@ -18202,29 +18202,29 @@
     </row>
     <row r="1621">
       <c r="A1621" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1621" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1621" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1622" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1622" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1623" s="1" t="s">
         <v>1</v>
@@ -18235,7 +18235,7 @@
     </row>
     <row r="1624">
       <c r="A1624" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1624" s="1" t="s">
         <v>1</v>
@@ -18246,7 +18246,7 @@
     </row>
     <row r="1625">
       <c r="A1625" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1625" s="1" t="s">
         <v>1</v>
@@ -18257,18 +18257,18 @@
     </row>
     <row r="1626">
       <c r="A1626" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1626" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1626" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1627">
       <c r="A1627" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1627" s="1" t="s">
         <v>1</v>
@@ -18279,7 +18279,7 @@
     </row>
     <row r="1628">
       <c r="A1628" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1628" s="1" t="s">
         <v>1</v>
@@ -18290,18 +18290,18 @@
     </row>
     <row r="1629">
       <c r="A1629" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1629" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1629" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1630" s="1" t="s">
         <v>1</v>
@@ -18312,7 +18312,7 @@
     </row>
     <row r="1631">
       <c r="A1631" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1631" s="1" t="s">
         <v>1</v>
@@ -18323,18 +18323,18 @@
     </row>
     <row r="1632">
       <c r="A1632" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1632" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1632" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1633">
       <c r="A1633" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1633" s="1" t="s">
         <v>1</v>
@@ -18345,7 +18345,7 @@
     </row>
     <row r="1634">
       <c r="A1634" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1634" s="1" t="s">
         <v>1</v>
@@ -18356,7 +18356,7 @@
     </row>
     <row r="1635">
       <c r="A1635" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1635" s="1" t="s">
         <v>1</v>
@@ -18483,7 +18483,7 @@
         <v>1</v>
       </c>
       <c r="C1646" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1647">
@@ -18494,7 +18494,7 @@
         <v>1</v>
       </c>
       <c r="C1647" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1648">
@@ -18538,7 +18538,7 @@
         <v>1</v>
       </c>
       <c r="C1651" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1652">
@@ -18549,7 +18549,7 @@
         <v>1</v>
       </c>
       <c r="C1652" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1653">
@@ -18582,7 +18582,7 @@
         <v>1</v>
       </c>
       <c r="C1655" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1656">
@@ -18626,7 +18626,7 @@
         <v>1</v>
       </c>
       <c r="C1659" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1660">
@@ -18659,7 +18659,7 @@
         <v>1</v>
       </c>
       <c r="C1662" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1663">
@@ -18670,7 +18670,7 @@
         <v>1</v>
       </c>
       <c r="C1663" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1664">
@@ -18692,7 +18692,7 @@
         <v>1</v>
       </c>
       <c r="C1665" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1666">
@@ -18725,7 +18725,7 @@
         <v>1</v>
       </c>
       <c r="C1668" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1669">
@@ -18736,7 +18736,7 @@
         <v>1</v>
       </c>
       <c r="C1669" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1670">
@@ -18747,7 +18747,7 @@
         <v>1</v>
       </c>
       <c r="C1670" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1671">
@@ -18758,7 +18758,7 @@
         <v>1</v>
       </c>
       <c r="C1671" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1672">
@@ -18769,7 +18769,7 @@
         <v>1</v>
       </c>
       <c r="C1672" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1673">
@@ -18802,7 +18802,7 @@
         <v>1</v>
       </c>
       <c r="C1675" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1676">
@@ -18890,7 +18890,7 @@
         <v>1</v>
       </c>
       <c r="C1683" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1684">
@@ -18945,7 +18945,7 @@
         <v>1</v>
       </c>
       <c r="C1688" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1689">
@@ -18961,7 +18961,7 @@
     </row>
     <row r="1690">
       <c r="A1690" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1690" s="1" t="s">
         <v>1</v>
@@ -18972,18 +18972,18 @@
     </row>
     <row r="1691">
       <c r="A1691" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1691" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1691" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1692">
       <c r="A1692" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1692" s="1" t="s">
         <v>1</v>
@@ -19022,7 +19022,7 @@
         <v>1</v>
       </c>
       <c r="C1695" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1696">
@@ -19055,7 +19055,7 @@
         <v>1</v>
       </c>
       <c r="C1698" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1699">
@@ -19066,7 +19066,7 @@
         <v>1</v>
       </c>
       <c r="C1699" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1700">
@@ -19077,7 +19077,7 @@
         <v>1</v>
       </c>
       <c r="C1700" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1701">
@@ -19121,7 +19121,7 @@
         <v>1</v>
       </c>
       <c r="C1704" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1705">
@@ -19143,7 +19143,7 @@
         <v>1</v>
       </c>
       <c r="C1706" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1707">
@@ -19154,7 +19154,7 @@
         <v>1</v>
       </c>
       <c r="C1707" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1708">
@@ -19165,7 +19165,7 @@
         <v>1</v>
       </c>
       <c r="C1708" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1709">
@@ -19176,7 +19176,7 @@
         <v>1</v>
       </c>
       <c r="C1709" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1710">
@@ -19187,7 +19187,7 @@
         <v>1</v>
       </c>
       <c r="C1710" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1711">
@@ -19209,7 +19209,7 @@
         <v>1</v>
       </c>
       <c r="C1712" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1713">
@@ -19220,7 +19220,7 @@
         <v>1</v>
       </c>
       <c r="C1713" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1714">
@@ -19242,7 +19242,7 @@
         <v>1</v>
       </c>
       <c r="C1715" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1716">
@@ -19253,7 +19253,7 @@
         <v>1</v>
       </c>
       <c r="C1716" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1717">
@@ -19286,7 +19286,7 @@
         <v>1</v>
       </c>
       <c r="C1719" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1720">
@@ -19297,7 +19297,7 @@
         <v>1</v>
       </c>
       <c r="C1720" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1721">
@@ -19319,7 +19319,7 @@
         <v>1</v>
       </c>
       <c r="C1722" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1723">
@@ -19374,7 +19374,7 @@
         <v>1</v>
       </c>
       <c r="C1727" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1728">
@@ -19385,7 +19385,7 @@
         <v>1</v>
       </c>
       <c r="C1728" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1729">
@@ -19407,7 +19407,7 @@
         <v>1</v>
       </c>
       <c r="C1730" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1731">
@@ -19440,7 +19440,7 @@
         <v>1</v>
       </c>
       <c r="C1733" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1734">
@@ -19495,7 +19495,7 @@
         <v>1</v>
       </c>
       <c r="C1738" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1739">
@@ -19511,18 +19511,18 @@
     </row>
     <row r="1740">
       <c r="A1740" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1740" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1740" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1741">
       <c r="A1741" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1741" s="1" t="s">
         <v>1</v>
@@ -19533,7 +19533,7 @@
     </row>
     <row r="1742">
       <c r="A1742" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1742" s="1" t="s">
         <v>1</v>
@@ -19544,7 +19544,7 @@
     </row>
     <row r="1743">
       <c r="A1743" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1743" s="1" t="s">
         <v>1</v>
@@ -19572,7 +19572,7 @@
         <v>1</v>
       </c>
       <c r="C1745" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1746">
@@ -19583,7 +19583,7 @@
         <v>1</v>
       </c>
       <c r="C1746" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1747">
@@ -19594,7 +19594,7 @@
         <v>1</v>
       </c>
       <c r="C1747" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1748">
@@ -19616,7 +19616,7 @@
         <v>1</v>
       </c>
       <c r="C1749" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1750">
@@ -19627,7 +19627,7 @@
         <v>1</v>
       </c>
       <c r="C1750" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1751">
@@ -19638,7 +19638,7 @@
         <v>1</v>
       </c>
       <c r="C1751" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1752">
@@ -19704,7 +19704,7 @@
         <v>1</v>
       </c>
       <c r="C1757" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1758">
@@ -19726,7 +19726,7 @@
         <v>1</v>
       </c>
       <c r="C1759" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1760">
@@ -19748,7 +19748,7 @@
         <v>1</v>
       </c>
       <c r="C1761" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1762">
@@ -19759,7 +19759,7 @@
         <v>1</v>
       </c>
       <c r="C1762" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1763">
@@ -19792,7 +19792,7 @@
         <v>1</v>
       </c>
       <c r="C1765" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1766">
@@ -19803,7 +19803,7 @@
         <v>1</v>
       </c>
       <c r="C1766" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1767">
@@ -19814,7 +19814,7 @@
         <v>1</v>
       </c>
       <c r="C1767" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1768">
@@ -19869,7 +19869,7 @@
         <v>1</v>
       </c>
       <c r="C1772" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1773">
@@ -19902,7 +19902,7 @@
         <v>1</v>
       </c>
       <c r="C1775" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1776">
@@ -19924,7 +19924,7 @@
         <v>1</v>
       </c>
       <c r="C1777" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1778">
@@ -19946,7 +19946,7 @@
         <v>1</v>
       </c>
       <c r="C1779" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1780">
@@ -19979,7 +19979,7 @@
         <v>1</v>
       </c>
       <c r="C1782" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1783">
@@ -20001,7 +20001,7 @@
         <v>1</v>
       </c>
       <c r="C1784" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1785">
@@ -20067,7 +20067,7 @@
         <v>1</v>
       </c>
       <c r="C1790" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1791">
@@ -20089,7 +20089,7 @@
         <v>1</v>
       </c>
       <c r="C1792" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1793">
@@ -20105,18 +20105,18 @@
     </row>
     <row r="1794">
       <c r="A1794" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1794" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1794" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1795">
       <c r="A1795" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1795" s="1" t="s">
         <v>1</v>
@@ -20127,7 +20127,7 @@
     </row>
     <row r="1796">
       <c r="A1796" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1796" s="1" t="s">
         <v>1</v>
@@ -20138,7 +20138,7 @@
     </row>
     <row r="1797">
       <c r="A1797" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1797" s="1" t="s">
         <v>1</v>
@@ -20149,18 +20149,18 @@
     </row>
     <row r="1798">
       <c r="A1798" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1798" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1798" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1799">
       <c r="A1799" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1799" s="1" t="s">
         <v>1</v>
@@ -20188,7 +20188,7 @@
         <v>1</v>
       </c>
       <c r="C1801" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1802">
@@ -20243,7 +20243,7 @@
         <v>1</v>
       </c>
       <c r="C1806" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1807">
@@ -20276,7 +20276,7 @@
         <v>1</v>
       </c>
       <c r="C1809" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1810">
@@ -20287,7 +20287,7 @@
         <v>1</v>
       </c>
       <c r="C1810" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1811">
@@ -20309,7 +20309,7 @@
         <v>1</v>
       </c>
       <c r="C1812" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1813">
@@ -20342,7 +20342,7 @@
         <v>1</v>
       </c>
       <c r="C1815" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1816">
@@ -20353,7 +20353,7 @@
         <v>1</v>
       </c>
       <c r="C1816" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1817">
@@ -20364,7 +20364,7 @@
         <v>1</v>
       </c>
       <c r="C1817" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1818">
@@ -20397,7 +20397,7 @@
         <v>1</v>
       </c>
       <c r="C1820" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1821">
@@ -20419,7 +20419,7 @@
         <v>1</v>
       </c>
       <c r="C1822" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1823">
@@ -20452,7 +20452,7 @@
         <v>1</v>
       </c>
       <c r="C1825" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1826">
@@ -20485,7 +20485,7 @@
         <v>1</v>
       </c>
       <c r="C1828" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1829">
@@ -20507,7 +20507,7 @@
         <v>1</v>
       </c>
       <c r="C1830" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1831">
@@ -20595,7 +20595,7 @@
         <v>1</v>
       </c>
       <c r="C1838" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1839">
@@ -20606,7 +20606,7 @@
         <v>1</v>
       </c>
       <c r="C1839" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1840">
@@ -20683,7 +20683,7 @@
         <v>1</v>
       </c>
       <c r="C1846" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1847">
@@ -20749,7 +20749,7 @@
         <v>1</v>
       </c>
       <c r="C1852" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -20760,7 +20760,7 @@
         <v>1</v>
       </c>
       <c r="C1853" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1854">
@@ -20804,7 +20804,7 @@
         <v>1</v>
       </c>
       <c r="C1857" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1858">
@@ -20842,7 +20842,7 @@
     </row>
     <row r="1861">
       <c r="A1861" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1861" s="1" t="s">
         <v>1</v>
@@ -20853,7 +20853,7 @@
     </row>
     <row r="1862">
       <c r="A1862" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1862" s="1" t="s">
         <v>1</v>
@@ -20936,7 +20936,7 @@
         <v>1</v>
       </c>
       <c r="C1869" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1870">
@@ -20991,7 +20991,7 @@
         <v>1</v>
       </c>
       <c r="C1874" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1875">
@@ -21035,7 +21035,7 @@
         <v>1</v>
       </c>
       <c r="C1878" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1879">
@@ -21090,7 +21090,7 @@
         <v>1</v>
       </c>
       <c r="C1883" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1884">
@@ -21211,7 +21211,7 @@
         <v>1</v>
       </c>
       <c r="C1894" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1895">
@@ -21244,7 +21244,7 @@
         <v>1</v>
       </c>
       <c r="C1897" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1898">
@@ -21266,7 +21266,7 @@
         <v>1</v>
       </c>
       <c r="C1899" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1900">
@@ -21321,7 +21321,7 @@
         <v>1</v>
       </c>
       <c r="C1904" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1905">
@@ -21332,7 +21332,7 @@
         <v>1</v>
       </c>
       <c r="C1905" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1906">
@@ -21354,7 +21354,7 @@
         <v>1</v>
       </c>
       <c r="C1907" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1908">
@@ -21387,7 +21387,7 @@
         <v>1</v>
       </c>
       <c r="C1910" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1911">
@@ -21442,7 +21442,7 @@
         <v>1</v>
       </c>
       <c r="C1915" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1916">
@@ -21453,7 +21453,7 @@
         <v>1</v>
       </c>
       <c r="C1916" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1917">
@@ -21497,7 +21497,7 @@
         <v>1</v>
       </c>
       <c r="C1920" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -21508,7 +21508,7 @@
         <v>1</v>
       </c>
       <c r="C1921" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1922">
@@ -21563,7 +21563,7 @@
         <v>1</v>
       </c>
       <c r="C1926" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1927">
@@ -21574,7 +21574,7 @@
         <v>1</v>
       </c>
       <c r="C1927" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1928">
@@ -21662,7 +21662,7 @@
         <v>1</v>
       </c>
       <c r="C1935" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1936">
@@ -21750,7 +21750,7 @@
         <v>1</v>
       </c>
       <c r="C1943" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -21882,7 +21882,7 @@
         <v>1</v>
       </c>
       <c r="C1955" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1956">
@@ -21893,7 +21893,7 @@
         <v>1</v>
       </c>
       <c r="C1956" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1957">
@@ -21970,7 +21970,7 @@
         <v>1</v>
       </c>
       <c r="C1963" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1964">
@@ -21992,7 +21992,7 @@
         <v>1</v>
       </c>
       <c r="C1965" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1966">
@@ -22003,7 +22003,7 @@
         <v>1</v>
       </c>
       <c r="C1966" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1967">
@@ -22025,7 +22025,7 @@
         <v>1</v>
       </c>
       <c r="C1968" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1969">
@@ -22047,7 +22047,7 @@
         <v>1</v>
       </c>
       <c r="C1970" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1971">
@@ -22080,7 +22080,7 @@
         <v>1</v>
       </c>
       <c r="C1973" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1974">
@@ -22102,7 +22102,7 @@
         <v>1</v>
       </c>
       <c r="C1975" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1976">
@@ -22113,7 +22113,7 @@
         <v>1</v>
       </c>
       <c r="C1976" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1977">
@@ -22124,7 +22124,7 @@
         <v>1</v>
       </c>
       <c r="C1977" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1978">
@@ -22157,7 +22157,7 @@
         <v>1</v>
       </c>
       <c r="C1980" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1981">
@@ -22168,7 +22168,7 @@
         <v>1</v>
       </c>
       <c r="C1981" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1982">
@@ -22179,7 +22179,7 @@
         <v>1</v>
       </c>
       <c r="C1982" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1983">
@@ -22190,7 +22190,7 @@
         <v>1</v>
       </c>
       <c r="C1983" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1984">
@@ -22212,7 +22212,7 @@
         <v>1</v>
       </c>
       <c r="C1985" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1986">
@@ -22234,7 +22234,7 @@
         <v>1</v>
       </c>
       <c r="C1987" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1988">
@@ -22245,7 +22245,7 @@
         <v>1</v>
       </c>
       <c r="C1988" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1989">
@@ -22261,18 +22261,18 @@
     </row>
     <row r="1990">
       <c r="A1990" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1990" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1990" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1991">
       <c r="A1991" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1991" s="2" t="s">
         <v>1</v>
@@ -22283,7 +22283,7 @@
     </row>
     <row r="1992">
       <c r="A1992" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1992" s="2" t="s">
         <v>1</v>
@@ -22294,7 +22294,7 @@
     </row>
     <row r="1993">
       <c r="A1993" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1993" s="2" t="s">
         <v>1</v>
@@ -22311,7 +22311,7 @@
         <v>1</v>
       </c>
       <c r="C1994" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1995">
